--- a/lyr.xlsx
+++ b/lyr.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10665" windowWidth="21570" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,62 +11,6 @@
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
-  <si>
-    <t>Current plat</t>
-  </si>
-  <si>
-    <t>Last plat</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>+Levels</t>
-  </si>
-  <si>
-    <t>Kills</t>
-  </si>
-  <si>
-    <t>+Kills</t>
-  </si>
-  <si>
-    <t>Stats</t>
-  </si>
-  <si>
-    <t>+Stats</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Earned</t>
-  </si>
-  <si>
-    <t>Saved</t>
-  </si>
-  <si>
-    <t>Spending target</t>
-  </si>
-  <si>
-    <t>Gain per kill</t>
-  </si>
-  <si>
-    <t>Total saved</t>
-  </si>
-  <si>
-    <t>Avg</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -100,7 +44,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -146,17 +90,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -248,32 +181,33 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="3" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="2" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="2" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="2" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="2" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="8" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="10" fillId="0" fontId="0" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="2" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="7" fillId="2" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="10" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="9" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="11" fillId="0" fontId="0" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="2" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="8" fillId="2" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -583,368 +517,443 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="12" width="9"/>
-    <col customWidth="1" max="2" min="2" style="14" width="28.5"/>
-    <col customWidth="1" max="5" min="5" style="14" width="9"/>
+    <col customWidth="1" max="3" min="1" style="11" width="9"/>
+    <col customWidth="1" max="4" min="4" style="13" width="28.5"/>
+    <col customWidth="1" max="7" min="7" style="13" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1">
       <c r="A1" s="11" t="n">
-        <v>2918</v>
-      </c>
-      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="n">
-        <v>13151</v>
+      <c r="B1" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="n">
+        <v>150000</v>
+      </c>
+      <c r="D1" s="24" t="inlineStr">
+        <is>
+          <t>Current plat</t>
+        </is>
       </c>
       <c r="E1" s="6" t="n">
+        <v>182570</v>
+      </c>
+      <c r="G1" s="5" t="n">
         <v>43506</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2">
       <c r="A2" s="11" t="n">
-        <v>155</v>
-      </c>
-      <c r="B2" s="15" t="s">
+        <v>330454</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>261857</v>
+      </c>
+      <c r="C2" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" s="14" t="inlineStr">
+        <is>
+          <t>Last plat</t>
+        </is>
+      </c>
+      <c r="E2" s="15" t="n">
+        <v>182570</v>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>+Levels</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="K2" s="19" t="inlineStr">
+        <is>
+          <t>+Kills</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Stats</t>
+        </is>
+      </c>
+      <c r="M2" s="19" t="inlineStr">
+        <is>
+          <t>+Stats</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>Earned</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Saved</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="n">
+        <v>261867</v>
+      </c>
+      <c r="B3" s="11" t="n">
+        <v>202122</v>
+      </c>
+      <c r="C3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="n">
-        <v>13151</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="11" t="n">
-        <v>1835</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="16" t="n">
-        <v>4200</v>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="D3" s="14" t="inlineStr">
+        <is>
+          <t>Spending target</t>
+        </is>
+      </c>
+      <c r="E3" s="15" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>0.03252314814814815</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="H3" s="1" t="n">
         <v>70218</v>
-      </c>
-      <c r="G3" s="1" t="n"/>
-      <c r="H3" s="1" t="n">
-        <v>1695850</v>
       </c>
       <c r="I3" s="1" t="n"/>
       <c r="J3" s="1" t="n">
+        <v>1695850</v>
+      </c>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="n">
         <v>27577</v>
       </c>
-      <c r="K3" s="1" t="n"/>
-      <c r="R3" s="8" t="n">
+      <c r="M3" s="1" t="n"/>
+      <c r="T3" s="7" t="n">
         <v>43483</v>
       </c>
-      <c r="S3" s="9" t="n">
+      <c r="U3" s="8" t="n">
         <v>17.08</v>
       </c>
-      <c r="T3" s="9" t="n">
+      <c r="V3" s="8" t="n">
         <v>1017</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="11" t="n">
-        <v>826</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="23" t="n">
+    <row r="4">
+      <c r="A4" s="10" t="n">
+        <v>231980</v>
+      </c>
+      <c r="B4" t="n">
+        <v>231980</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2985</v>
+      </c>
+      <c r="D4" s="14" t="inlineStr">
+        <is>
+          <t>Gain per kill</t>
+        </is>
+      </c>
+      <c r="E4" s="22" t="n">
         <v>32.15</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="G4" s="2" t="n">
         <v>0.07418981481481482</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="H4" s="1" t="n">
         <v>70218</v>
-      </c>
-      <c r="G4" s="1">
-        <f>IF(F4-F3&gt;0,F4-F3,)</f>
-        <v/>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>1696446</v>
       </c>
       <c r="I4" s="1">
         <f>IF(H4-H3&gt;0,H4-H3,)</f>
         <v/>
       </c>
       <c r="J4" s="1" t="n">
-        <v>27583</v>
+        <v>1696446</v>
       </c>
       <c r="K4" s="1">
         <f>IF(J4-J3&gt;0,J4-J3,)</f>
         <v/>
       </c>
-      <c r="R4" s="8" t="n">
+      <c r="L4" s="1" t="n">
+        <v>27583</v>
+      </c>
+      <c r="M4" s="1">
+        <f>IF(L4-L3&gt;0,L4-L3,)</f>
+        <v/>
+      </c>
+      <c r="T4" s="7" t="n">
         <v>43490</v>
       </c>
-      <c r="S4" s="9" t="n">
+      <c r="U4" s="8" t="n">
         <v>87.13</v>
       </c>
-      <c r="T4" s="9" t="n">
+      <c r="V4" s="8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="11" t="n">
-        <v>335</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="24">
-        <f>SUM(A:A)</f>
-        <v/>
-      </c>
-      <c r="E5" s="2" t="n">
+    <row r="5">
+      <c r="A5" s="10" t="n">
+        <v>231980</v>
+      </c>
+      <c r="B5" t="n">
+        <v>174763</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Total saved</t>
+        </is>
+      </c>
+      <c r="E5" s="23">
+        <f>SUM(C:C)</f>
+        <v/>
+      </c>
+      <c r="G5" s="2" t="n">
         <v>0.5358796296296297</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="H5" s="1" t="n">
         <v>70255</v>
-      </c>
-      <c r="G5" s="1">
-        <f>IF(F5-F4&gt;0,F5-F4,)</f>
-        <v/>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>1696872</v>
       </c>
       <c r="I5" s="1">
         <f>IF(H5-H4&gt;0,H5-H4,)</f>
         <v/>
       </c>
       <c r="J5" s="1" t="n">
-        <v>27589</v>
+        <v>1696872</v>
       </c>
       <c r="K5" s="1">
         <f>IF(J5-J4&gt;0,J5-J4,)</f>
         <v/>
       </c>
-      <c r="R5" s="8" t="n">
+      <c r="L5" s="1" t="n">
+        <v>27589</v>
+      </c>
+      <c r="M5" s="1">
+        <f>IF(L5-L4&gt;0,L5-L4,)</f>
+        <v/>
+      </c>
+      <c r="T5" s="7" t="n">
         <v>43497</v>
       </c>
-      <c r="S5" s="9" t="n">
+      <c r="U5" s="8" t="n">
         <v>98.36</v>
       </c>
-      <c r="T5" s="9" t="n"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="11" t="n">
-        <v>234</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="V5" s="8" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="n">
+        <v>330168</v>
+      </c>
+      <c r="B6" t="n">
+        <v>190254</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15540</v>
+      </c>
+      <c r="G6" s="2" t="n">
         <v>0.5775</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="H6" s="1" t="n">
         <v>70260</v>
-      </c>
-      <c r="G6" s="1">
-        <f>IF(F6-F5&gt;0,F6-F5,)</f>
-        <v/>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>1697460</v>
       </c>
       <c r="I6" s="1">
         <f>IF(H6-H5&gt;0,H6-H5,)</f>
         <v/>
       </c>
       <c r="J6" s="1" t="n">
-        <v>27594</v>
+        <v>1697460</v>
       </c>
       <c r="K6" s="1">
         <f>IF(J6-J5&gt;0,J6-J5,)</f>
         <v/>
       </c>
-      <c r="R6" s="8" t="n"/>
-      <c r="S6" s="9" t="n"/>
-      <c r="T6" s="9" t="n"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="11" t="n">
-        <v>1186</v>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="L6" s="1" t="n">
+        <v>27594</v>
+      </c>
+      <c r="M6" s="1">
+        <f>IF(L6-L5&gt;0,L6-L5,)</f>
+        <v/>
+      </c>
+      <c r="T6" s="7" t="n"/>
+      <c r="U6" s="8" t="n"/>
+      <c r="V6" s="8" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="n">
+        <v>190254</v>
+      </c>
+      <c r="B7" t="n">
+        <v>175284</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
         <v>0.6191319444444444</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="H7" s="1" t="n">
         <v>70260</v>
-      </c>
-      <c r="G7" s="1">
-        <f>IF(F7-F6&gt;0,F7-F6,)</f>
-        <v/>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>1697899</v>
       </c>
       <c r="I7" s="1">
         <f>IF(H7-H6&gt;0,H7-H6,)</f>
         <v/>
       </c>
       <c r="J7" s="1" t="n">
-        <v>27603</v>
+        <v>1697899</v>
       </c>
       <c r="K7" s="1">
         <f>IF(J7-J6&gt;0,J7-J6,)</f>
         <v/>
       </c>
-      <c r="R7" s="8" t="n"/>
-      <c r="S7" s="9" t="n"/>
-      <c r="T7" s="9" t="n"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="11" t="n">
-        <v>1350</v>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="L7" s="1" t="n">
+        <v>27603</v>
+      </c>
+      <c r="M7" s="1">
+        <f>IF(L7-L6&gt;0,L7-L6,)</f>
+        <v/>
+      </c>
+      <c r="T7" s="7" t="n"/>
+      <c r="U7" s="8" t="n"/>
+      <c r="V7" s="8" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="n">
+        <v>207964</v>
+      </c>
+      <c r="B8" t="n">
+        <v>189126</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3268</v>
+      </c>
+      <c r="G8" s="2" t="n">
         <v>0.660787037037037</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="H8" s="1" t="n">
         <v>70260</v>
-      </c>
-      <c r="G8" s="1">
-        <f>IF(F8-F7&gt;0,F8-F7,)</f>
-        <v/>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>1698509</v>
       </c>
       <c r="I8" s="1">
         <f>IF(H8-H7&gt;0,H8-H7,)</f>
         <v/>
       </c>
       <c r="J8" s="1" t="n">
-        <v>27610</v>
+        <v>1698509</v>
       </c>
       <c r="K8" s="1">
         <f>IF(J8-J7&gt;0,J8-J7,)</f>
         <v/>
       </c>
-      <c r="R8" s="8" t="n"/>
-      <c r="S8" s="9" t="n"/>
-      <c r="T8" s="9" t="n"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="11" t="n">
-        <v>1806</v>
-      </c>
-      <c r="E9" s="2" t="n">
+      <c r="L8" s="1" t="n">
+        <v>27610</v>
+      </c>
+      <c r="M8" s="1">
+        <f>IF(L8-L7&gt;0,L8-L7,)</f>
+        <v/>
+      </c>
+      <c r="T8" s="7" t="n"/>
+      <c r="U8" s="8" t="n"/>
+      <c r="V8" s="8" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="n">
+        <v>189131</v>
+      </c>
+      <c r="B9" t="n">
+        <v>182570</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
         <v>0.702488425925926</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="H9" s="1" t="n">
         <v>70280</v>
-      </c>
-      <c r="G9" s="1">
-        <f>IF(F9-F8&gt;0,F9-F8,)</f>
-        <v/>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>1699005</v>
       </c>
       <c r="I9" s="1">
         <f>IF(H9-H8&gt;0,H9-H8,)</f>
         <v/>
       </c>
       <c r="J9" s="1" t="n">
-        <v>27617</v>
+        <v>1699005</v>
       </c>
       <c r="K9" s="1">
         <f>IF(J9-J8&gt;0,J9-J8,)</f>
         <v/>
       </c>
-      <c r="R9" s="8" t="n"/>
-      <c r="S9" s="9" t="n"/>
-      <c r="T9" s="9" t="n"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="11" t="n">
-        <v>23</v>
-      </c>
-      <c r="B10" s="13" t="n"/>
-      <c r="E10" s="2" t="n">
+      <c r="L9" s="1" t="n">
+        <v>27617</v>
+      </c>
+      <c r="M9" s="1">
+        <f>IF(L9-L8&gt;0,L9-L8,)</f>
+        <v/>
+      </c>
+      <c r="T9" s="7" t="n"/>
+      <c r="U9" s="8" t="n"/>
+      <c r="V9" s="8" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="n"/>
+      <c r="D10" s="12" t="n"/>
+      <c r="G10" s="2" t="n">
         <v>0.7441319444444444</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="H10" s="1" t="n">
         <v>70314</v>
-      </c>
-      <c r="G10" s="1">
-        <f>IF(F10-F9&gt;0,F10-F9,)</f>
-        <v/>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>1699579</v>
       </c>
       <c r="I10" s="1">
         <f>IF(H10-H9&gt;0,H10-H9,)</f>
         <v/>
       </c>
       <c r="J10" s="1" t="n">
-        <v>27626</v>
+        <v>1699579</v>
       </c>
       <c r="K10" s="1">
         <f>IF(J10-J9&gt;0,J10-J9,)</f>
         <v/>
       </c>
-      <c r="R10" s="8" t="n"/>
-      <c r="S10" s="9" t="n"/>
-      <c r="T10" s="9" t="n"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="11" t="n">
-        <v>594</v>
-      </c>
-      <c r="B11" s="13" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="1" t="n"/>
-      <c r="G11" s="1">
-        <f>IF(F11-F10&gt;0,F11-F10,)</f>
-        <v/>
-      </c>
+      <c r="L10" s="1" t="n">
+        <v>27626</v>
+      </c>
+      <c r="M10" s="1">
+        <f>IF(L10-L9&gt;0,L10-L9,)</f>
+        <v/>
+      </c>
+      <c r="T10" s="7" t="n"/>
+      <c r="U10" s="8" t="n"/>
+      <c r="V10" s="8" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="n"/>
+      <c r="D11" s="12" t="n"/>
+      <c r="G11" s="2" t="n"/>
       <c r="H11" s="1" t="n"/>
       <c r="I11" s="1">
         <f>IF(H11-H10&gt;0,H11-H10,)</f>
@@ -955,21 +964,19 @@
         <f>IF(J11-J10&gt;0,J11-J10,)</f>
         <v/>
       </c>
-      <c r="R11" s="8" t="n"/>
-      <c r="S11" s="9" t="n"/>
-      <c r="T11" s="9" t="n"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="n">
-        <v>751</v>
-      </c>
-      <c r="B12" s="13" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="1" t="n"/>
-      <c r="G12" s="1">
-        <f>IF(F12-F11&gt;0,F12-F11,)</f>
-        <v/>
-      </c>
+      <c r="L11" s="1" t="n"/>
+      <c r="M11" s="1">
+        <f>IF(L11-L10&gt;0,L11-L10,)</f>
+        <v/>
+      </c>
+      <c r="T11" s="7" t="n"/>
+      <c r="U11" s="8" t="n"/>
+      <c r="V11" s="8" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="n"/>
+      <c r="D12" s="12" t="n"/>
+      <c r="G12" s="2" t="n"/>
       <c r="H12" s="1" t="n"/>
       <c r="I12" s="1">
         <f>IF(H12-H11&gt;0,H12-H11,)</f>
@@ -980,19 +987,19 @@
         <f>IF(J12-J11&gt;0,J12-J11,)</f>
         <v/>
       </c>
-      <c r="R12" s="8" t="n"/>
-      <c r="S12" s="9" t="n"/>
-      <c r="T12" s="9" t="n"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="13" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="1" t="n"/>
-      <c r="G13" s="1">
-        <f>IF(F13-F12&gt;0,F13-F12,)</f>
-        <v/>
-      </c>
+      <c r="L12" s="1" t="n"/>
+      <c r="M12" s="1">
+        <f>IF(L12-L11&gt;0,L12-L11,)</f>
+        <v/>
+      </c>
+      <c r="T12" s="7" t="n"/>
+      <c r="U12" s="8" t="n"/>
+      <c r="V12" s="8" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="n"/>
+      <c r="D13" s="12" t="n"/>
+      <c r="G13" s="2" t="n"/>
       <c r="H13" s="1" t="n"/>
       <c r="I13" s="1">
         <f>IF(H13-H12&gt;0,H13-H12,)</f>
@@ -1003,19 +1010,19 @@
         <f>IF(J13-J12&gt;0,J13-J12,)</f>
         <v/>
       </c>
-      <c r="R13" s="8" t="n"/>
-      <c r="S13" s="9" t="n"/>
-      <c r="T13" s="9" t="n"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="11" t="n"/>
-      <c r="B14" s="13" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="1" t="n"/>
-      <c r="G14" s="1">
-        <f>IF(F14-F13&gt;0,F14-F13,)</f>
-        <v/>
-      </c>
+      <c r="L13" s="1" t="n"/>
+      <c r="M13" s="1">
+        <f>IF(L13-L12&gt;0,L13-L12,)</f>
+        <v/>
+      </c>
+      <c r="T13" s="7" t="n"/>
+      <c r="U13" s="8" t="n"/>
+      <c r="V13" s="8" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="n"/>
+      <c r="D14" s="12" t="n"/>
+      <c r="G14" s="2" t="n"/>
       <c r="H14" s="1" t="n"/>
       <c r="I14" s="1">
         <f>IF(H14-H13&gt;0,H14-H13,)</f>
@@ -1026,19 +1033,19 @@
         <f>IF(J14-J13&gt;0,J14-J13,)</f>
         <v/>
       </c>
-      <c r="R14" s="8" t="n"/>
-      <c r="S14" s="9" t="n"/>
-      <c r="T14" s="9" t="n"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="11" t="n"/>
-      <c r="B15" s="13" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="1" t="n"/>
-      <c r="G15" s="1">
-        <f>IF(F15-F14&gt;0,F15-F14,)</f>
-        <v/>
-      </c>
+      <c r="L14" s="1" t="n"/>
+      <c r="M14" s="1">
+        <f>IF(L14-L13&gt;0,L14-L13,)</f>
+        <v/>
+      </c>
+      <c r="T14" s="7" t="n"/>
+      <c r="U14" s="8" t="n"/>
+      <c r="V14" s="8" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="10" t="n"/>
+      <c r="D15" s="12" t="n"/>
+      <c r="G15" s="2" t="n"/>
       <c r="H15" s="1" t="n"/>
       <c r="I15" s="1">
         <f>IF(H15-H14&gt;0,H15-H14,)</f>
@@ -1049,19 +1056,19 @@
         <f>IF(J15-J14&gt;0,J15-J14,)</f>
         <v/>
       </c>
-      <c r="R15" s="8" t="n"/>
-      <c r="S15" s="9" t="n"/>
-      <c r="T15" s="9" t="n"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="11" t="n"/>
-      <c r="B16" s="13" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="1" t="n"/>
-      <c r="G16" s="1">
-        <f>IF(F16-F15&gt;0,F16-F15,)</f>
-        <v/>
-      </c>
+      <c r="L15" s="1" t="n"/>
+      <c r="M15" s="1">
+        <f>IF(L15-L14&gt;0,L15-L14,)</f>
+        <v/>
+      </c>
+      <c r="T15" s="7" t="n"/>
+      <c r="U15" s="8" t="n"/>
+      <c r="V15" s="8" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="D16" s="12" t="n"/>
+      <c r="G16" s="2" t="n"/>
       <c r="H16" s="1" t="n"/>
       <c r="I16" s="1">
         <f>IF(H16-H15&gt;0,H16-H15,)</f>
@@ -1072,19 +1079,19 @@
         <f>IF(J16-J15&gt;0,J16-J15,)</f>
         <v/>
       </c>
-      <c r="R16" s="8" t="n"/>
-      <c r="S16" s="9" t="n"/>
-      <c r="T16" s="9" t="n"/>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="11" t="n"/>
-      <c r="B17" s="13" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="1" t="n"/>
-      <c r="G17" s="1">
-        <f>IF(F17-F16&gt;0,F17-F16,)</f>
-        <v/>
-      </c>
+      <c r="L16" s="1" t="n"/>
+      <c r="M16" s="1">
+        <f>IF(L16-L15&gt;0,L16-L15,)</f>
+        <v/>
+      </c>
+      <c r="T16" s="7" t="n"/>
+      <c r="U16" s="8" t="n"/>
+      <c r="V16" s="8" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="10" t="n"/>
+      <c r="D17" s="12" t="n"/>
+      <c r="G17" s="2" t="n"/>
       <c r="H17" s="1" t="n"/>
       <c r="I17" s="1">
         <f>IF(H17-H16&gt;0,H17-H16,)</f>
@@ -1095,19 +1102,19 @@
         <f>IF(J17-J16&gt;0,J17-J16,)</f>
         <v/>
       </c>
-      <c r="R17" s="8" t="n"/>
-      <c r="S17" s="9" t="n"/>
-      <c r="T17" s="9" t="n"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="11" t="n"/>
-      <c r="B18" s="13" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="1" t="n"/>
-      <c r="G18" s="1">
-        <f>IF(F18-F17&gt;0,F18-F17,)</f>
-        <v/>
-      </c>
+      <c r="L17" s="1" t="n"/>
+      <c r="M17" s="1">
+        <f>IF(L17-L16&gt;0,L17-L16,)</f>
+        <v/>
+      </c>
+      <c r="T17" s="7" t="n"/>
+      <c r="U17" s="8" t="n"/>
+      <c r="V17" s="8" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="D18" s="12" t="n"/>
+      <c r="G18" s="2" t="n"/>
       <c r="H18" s="1" t="n"/>
       <c r="I18" s="1">
         <f>IF(H18-H17&gt;0,H18-H17,)</f>
@@ -1118,19 +1125,19 @@
         <f>IF(J18-J17&gt;0,J18-J17,)</f>
         <v/>
       </c>
-      <c r="R18" s="8" t="n"/>
-      <c r="S18" s="9" t="n"/>
-      <c r="T18" s="9" t="n"/>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="11" t="n"/>
-      <c r="B19" s="13" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="1" t="n"/>
-      <c r="G19" s="1">
-        <f>IF(F19-F18&gt;0,F19-F18,)</f>
-        <v/>
-      </c>
+      <c r="L18" s="1" t="n"/>
+      <c r="M18" s="1">
+        <f>IF(L18-L17&gt;0,L18-L17,)</f>
+        <v/>
+      </c>
+      <c r="T18" s="7" t="n"/>
+      <c r="U18" s="8" t="n"/>
+      <c r="V18" s="8" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n"/>
+      <c r="D19" s="12" t="n"/>
+      <c r="G19" s="2" t="n"/>
       <c r="H19" s="1" t="n"/>
       <c r="I19" s="1">
         <f>IF(H19-H18&gt;0,H19-H18,)</f>
@@ -1141,19 +1148,19 @@
         <f>IF(J19-J18&gt;0,J19-J18,)</f>
         <v/>
       </c>
-      <c r="R19" s="8" t="n"/>
-      <c r="S19" s="9" t="n"/>
-      <c r="T19" s="9" t="n"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="11" t="n"/>
-      <c r="B20" s="13" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="1" t="n"/>
-      <c r="G20" s="1">
-        <f>IF(F20-F19&gt;0,F20-F19,)</f>
-        <v/>
-      </c>
+      <c r="L19" s="1" t="n"/>
+      <c r="M19" s="1">
+        <f>IF(L19-L18&gt;0,L19-L18,)</f>
+        <v/>
+      </c>
+      <c r="T19" s="7" t="n"/>
+      <c r="U19" s="8" t="n"/>
+      <c r="V19" s="8" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="n"/>
+      <c r="D20" s="12" t="n"/>
+      <c r="G20" s="2" t="n"/>
       <c r="H20" s="1" t="n"/>
       <c r="I20" s="1">
         <f>IF(H20-H19&gt;0,H20-H19,)</f>
@@ -1164,19 +1171,19 @@
         <f>IF(J20-J19&gt;0,J20-J19,)</f>
         <v/>
       </c>
-      <c r="R20" s="8" t="n"/>
-      <c r="S20" s="9" t="n"/>
-      <c r="T20" s="9" t="n"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="11" t="n"/>
-      <c r="B21" s="13" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="1" t="n"/>
-      <c r="G21" s="1">
-        <f>IF(F21-F20&gt;0,F21-F20,)</f>
-        <v/>
-      </c>
+      <c r="L20" s="1" t="n"/>
+      <c r="M20" s="1">
+        <f>IF(L20-L19&gt;0,L20-L19,)</f>
+        <v/>
+      </c>
+      <c r="T20" s="7" t="n"/>
+      <c r="U20" s="8" t="n"/>
+      <c r="V20" s="8" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="D21" s="12" t="n"/>
+      <c r="G21" s="2" t="n"/>
       <c r="H21" s="1" t="n"/>
       <c r="I21" s="1">
         <f>IF(H21-H20&gt;0,H21-H20,)</f>
@@ -1187,18 +1194,18 @@
         <f>IF(J21-J20&gt;0,J21-J20,)</f>
         <v/>
       </c>
-      <c r="R21" s="8" t="n"/>
-      <c r="S21" s="9" t="n"/>
-      <c r="T21" s="9" t="n"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="B22" s="13" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="1" t="n"/>
-      <c r="G22" s="1">
-        <f>IF(F22-F21&gt;0,F22-F21,)</f>
-        <v/>
-      </c>
+      <c r="L21" s="1" t="n"/>
+      <c r="M21" s="1">
+        <f>IF(L21-L20&gt;0,L21-L20,)</f>
+        <v/>
+      </c>
+      <c r="T21" s="7" t="n"/>
+      <c r="U21" s="8" t="n"/>
+      <c r="V21" s="8" t="n"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="12" t="n"/>
+      <c r="G22" s="2" t="n"/>
       <c r="H22" s="1" t="n"/>
       <c r="I22" s="1">
         <f>IF(H22-H21&gt;0,H22-H21,)</f>
@@ -1209,18 +1216,18 @@
         <f>IF(J22-J21&gt;0,J22-J21,)</f>
         <v/>
       </c>
-      <c r="R22" s="8" t="n"/>
-      <c r="S22" s="9" t="n"/>
-      <c r="T22" s="9" t="n"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="B23" s="13" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="1" t="n"/>
-      <c r="G23" s="1">
-        <f>IF(F23-F22&gt;0,F23-F22,)</f>
-        <v/>
-      </c>
+      <c r="L22" s="1" t="n"/>
+      <c r="M22" s="1">
+        <f>IF(L22-L21&gt;0,L22-L21,)</f>
+        <v/>
+      </c>
+      <c r="T22" s="7" t="n"/>
+      <c r="U22" s="8" t="n"/>
+      <c r="V22" s="8" t="n"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="12" t="n"/>
+      <c r="G23" s="2" t="n"/>
       <c r="H23" s="1" t="n"/>
       <c r="I23" s="1">
         <f>IF(H23-H22&gt;0,H23-H22,)</f>
@@ -1231,62 +1238,71 @@
         <f>IF(J23-J22&gt;0,J23-J22,)</f>
         <v/>
       </c>
-      <c r="R23" s="8" t="n"/>
-      <c r="S23" s="9" t="n"/>
-      <c r="T23" s="9" t="n"/>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="C24" s="12" t="n"/>
-      <c r="E24" s="21" t="n"/>
-      <c r="F24" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="17">
-        <f>AVERAGEIF(G4:G23,"&lt;&gt;0")</f>
-        <v/>
-      </c>
-      <c r="H24" s="19" t="n"/>
-      <c r="I24" s="3">
+      <c r="L23" s="1" t="n"/>
+      <c r="M23" s="1">
+        <f>IF(L23-L22&gt;0,L23-L22,)</f>
+        <v/>
+      </c>
+      <c r="T23" s="7" t="n"/>
+      <c r="U23" s="8" t="n"/>
+      <c r="V23" s="8" t="n"/>
+    </row>
+    <row r="24">
+      <c r="E24" s="11" t="n"/>
+      <c r="G24" s="20" t="n"/>
+      <c r="H24" s="17" t="inlineStr">
+        <is>
+          <t>Avg</t>
+        </is>
+      </c>
+      <c r="I24" s="16">
         <f>AVERAGEIF(I4:I23,"&lt;&gt;0")</f>
         <v/>
       </c>
-      <c r="J24" s="19" t="n"/>
+      <c r="J24" s="18" t="n"/>
       <c r="K24" s="3">
         <f>AVERAGEIF(K4:K23,"&lt;&gt;0")</f>
         <v/>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S24" s="10">
-        <f>SUM(S3:S23)</f>
-        <v/>
-      </c>
-      <c r="T24" s="10">
-        <f>SUM(T3:T23)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="E25" s="22" t="n"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="E26" s="22" t="n"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="E27" s="22" t="n"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="E28" s="22" t="n"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="E29" s="22" t="n"/>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="E30" s="22" t="n"/>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="E31" s="22" t="n"/>
+      <c r="L24" s="18" t="n"/>
+      <c r="M24" s="3">
+        <f>AVERAGEIF(M4:M23,"&lt;&gt;0")</f>
+        <v/>
+      </c>
+      <c r="T24" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="U24" s="9">
+        <f>SUM(U3:U23)</f>
+        <v/>
+      </c>
+      <c r="V24" s="9">
+        <f>SUM(V3:V23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="G25" s="21" t="n"/>
+    </row>
+    <row r="26">
+      <c r="G26" s="21" t="n"/>
+    </row>
+    <row r="27">
+      <c r="G27" s="21" t="n"/>
+    </row>
+    <row r="28">
+      <c r="G28" s="21" t="n"/>
+    </row>
+    <row r="29">
+      <c r="G29" s="21" t="n"/>
+    </row>
+    <row r="30">
+      <c r="G30" s="21" t="n"/>
+    </row>
+    <row r="31">
+      <c r="G31" s="21" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/lyr.xlsx
+++ b/lyr.xlsx
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="E1" s="6" t="n">
-        <v>182570</v>
+        <v>177944</v>
       </c>
       <c r="G1" s="5" t="n">
         <v>43506</v>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="E2" s="15" t="n">
-        <v>182570</v>
+        <v>177944</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="E3" s="15" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0.03252314814814815</v>
@@ -920,7 +920,15 @@
       <c r="V9" s="8" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="10" t="n">
+        <v>203177</v>
+      </c>
+      <c r="B10" t="n">
+        <v>177944</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2060</v>
+      </c>
       <c r="D10" s="12" t="n"/>
       <c r="G10" s="2" t="n">
         <v>0.7441319444444444</v>

--- a/lyr.xlsx
+++ b/lyr.xlsx
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="E1" s="6" t="n">
-        <v>177944</v>
+        <v>183797</v>
       </c>
       <c r="G1" s="5" t="n">
         <v>43506</v>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="E2" s="15" t="n">
-        <v>177944</v>
+        <v>183797</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="E3" s="15" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0.03252314814814815</v>
@@ -959,7 +959,15 @@
       <c r="V10" s="8" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="10" t="n">
+        <v>220325</v>
+      </c>
+      <c r="B11" t="n">
+        <v>183797</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4238</v>
+      </c>
       <c r="D11" s="12" t="n"/>
       <c r="G11" s="2" t="n"/>
       <c r="H11" s="1" t="n"/>

--- a/lyr.xlsx
+++ b/lyr.xlsx
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="E1" s="6" t="n">
-        <v>188286</v>
+        <v>202600</v>
       </c>
       <c r="G1" s="5" t="n">
         <v>43506</v>
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="E2" s="15" t="n">
-        <v>188286</v>
+        <v>202600</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
@@ -1085,7 +1085,15 @@
       <c r="V14" s="8" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="27" t="n"/>
+      <c r="A15" s="27" t="n">
+        <v>232161</v>
+      </c>
+      <c r="B15" t="n">
+        <v>202600</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4387</v>
+      </c>
       <c r="D15" s="12" t="n"/>
       <c r="G15" s="2" t="n"/>
       <c r="H15" s="1" t="n"/>

--- a/lyr.xlsx
+++ b/lyr.xlsx
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="E1" s="6" t="n">
-        <v>202600</v>
+        <v>195896</v>
       </c>
       <c r="G1" s="5" t="n">
         <v>43506</v>
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="E2" s="15" t="n">
-        <v>202600</v>
+        <v>195896</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="E3" s="15" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0.03252314814814815</v>
@@ -1116,7 +1116,15 @@
       <c r="V15" s="8" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="27" t="n"/>
+      <c r="A16" s="27" t="n">
+        <v>211125</v>
+      </c>
+      <c r="B16" t="n">
+        <v>202132</v>
+      </c>
+      <c r="C16" t="n">
+        <v>852</v>
+      </c>
       <c r="D16" s="12" t="n"/>
       <c r="G16" s="2" t="n"/>
       <c r="H16" s="1" t="n"/>
@@ -1139,7 +1147,15 @@
       <c r="V16" s="8" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="27" t="n"/>
+      <c r="A17" s="27" t="n">
+        <v>202134</v>
+      </c>
+      <c r="B17" t="n">
+        <v>195896</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
       <c r="D17" s="12" t="n"/>
       <c r="G17" s="2" t="n"/>
       <c r="H17" s="1" t="n"/>

--- a/lyr.xlsx
+++ b/lyr.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11835" windowWidth="21600" xWindow="825" yWindow="510"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="21600" xWindow="6450" yWindow="1635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -181,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -192,10 +192,8 @@
     <xf borderId="2" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="2" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="5" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="6" fillId="2" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="9" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -522,55 +520,55 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="11" width="9"/>
-    <col customWidth="1" max="4" min="4" style="26" width="28.5"/>
-    <col customWidth="1" max="7" min="7" style="26" width="9"/>
+    <col customWidth="1" max="3" min="1" style="10" width="9"/>
+    <col customWidth="1" max="4" min="4" style="24" width="28.5"/>
+    <col customWidth="1" max="7" min="7" style="24" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="n">
+      <c r="A1" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="25" t="n">
+      <c r="B1" s="10" t="n">
+        <v>330454</v>
+      </c>
+      <c r="C1" s="23" t="n">
         <v>150000</v>
       </c>
-      <c r="D1" s="24" t="inlineStr">
+      <c r="D1" s="22" t="inlineStr">
         <is>
           <t>Current plat</t>
         </is>
       </c>
       <c r="E1" s="6" t="n">
-        <v>195896</v>
+        <v>230679</v>
       </c>
       <c r="G1" s="5" t="n">
         <v>43506</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="n">
-        <v>330454</v>
-      </c>
-      <c r="B2" s="11" t="n">
+      <c r="A2" s="10" t="n">
         <v>261857</v>
       </c>
-      <c r="C2" s="11" t="n">
+      <c r="B2" s="25" t="n">
+        <v>261867</v>
+      </c>
+      <c r="C2" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="D2" s="14" t="inlineStr">
+      <c r="D2" s="12" t="inlineStr">
         <is>
           <t>Last plat</t>
         </is>
       </c>
-      <c r="E2" s="15" t="n">
-        <v>195896</v>
+      <c r="E2" s="13" t="n">
+        <v>230679</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
@@ -592,7 +590,7 @@
           <t>Kills</t>
         </is>
       </c>
-      <c r="K2" s="19" t="inlineStr">
+      <c r="K2" s="17" t="inlineStr">
         <is>
           <t>+Kills</t>
         </is>
@@ -602,7 +600,7 @@
           <t>Stats</t>
         </is>
       </c>
-      <c r="M2" s="19" t="inlineStr">
+      <c r="M2" s="17" t="inlineStr">
         <is>
           <t>+Stats</t>
         </is>
@@ -624,22 +622,22 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="n">
-        <v>261867</v>
-      </c>
-      <c r="B3" s="11" t="n">
+      <c r="A3" s="10" t="n">
         <v>202122</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="B3" s="25" t="n">
+        <v>231980</v>
+      </c>
+      <c r="C3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="inlineStr">
+      <c r="D3" s="12" t="inlineStr">
         <is>
           <t>Spending target</t>
         </is>
       </c>
-      <c r="E3" s="15" t="n">
-        <v>15000</v>
+      <c r="E3" s="13" t="n">
+        <v>10000</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0.03252314814814815</v>
@@ -667,21 +665,21 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="27" t="n">
+      <c r="A4" t="n">
         <v>231980</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="25" t="n">
         <v>231980</v>
       </c>
       <c r="C4" t="n">
         <v>2985</v>
       </c>
-      <c r="D4" s="14" t="inlineStr">
+      <c r="D4" s="12" t="inlineStr">
         <is>
           <t>Gain per kill</t>
         </is>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="20" t="n">
         <v>32.15</v>
       </c>
       <c r="G4" s="2" t="n">
@@ -719,11 +717,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="27" t="n">
-        <v>231980</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" t="n">
         <v>174763</v>
+      </c>
+      <c r="B5" s="25" t="n">
+        <v>330168</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -733,7 +731,7 @@
           <t>Total saved</t>
         </is>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="21">
         <f>SUM(C:C)</f>
         <v/>
       </c>
@@ -770,10 +768,10 @@
       <c r="V5" s="8" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="27" t="n">
-        <v>330168</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="A6" t="n">
+        <v>190254</v>
+      </c>
+      <c r="B6" s="25" t="n">
         <v>190254</v>
       </c>
       <c r="C6" t="n">
@@ -808,11 +806,11 @@
       <c r="V6" s="8" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="n">
-        <v>190254</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="A7" t="n">
         <v>175284</v>
+      </c>
+      <c r="B7" s="25" t="n">
+        <v>207964</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -846,11 +844,11 @@
       <c r="V7" s="8" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="27" t="n">
-        <v>207964</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="A8" t="n">
         <v>189126</v>
+      </c>
+      <c r="B8" s="25" t="n">
+        <v>189131</v>
       </c>
       <c r="C8" t="n">
         <v>3268</v>
@@ -884,11 +882,11 @@
       <c r="V8" s="8" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="27" t="n">
-        <v>189131</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="A9" t="n">
         <v>182570</v>
+      </c>
+      <c r="B9" s="25" t="n">
+        <v>203177</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -922,16 +920,16 @@
       <c r="V9" s="8" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="27" t="n">
-        <v>203177</v>
-      </c>
-      <c r="B10" t="n">
+      <c r="A10" t="n">
         <v>177944</v>
+      </c>
+      <c r="B10" s="25" t="n">
+        <v>220325</v>
       </c>
       <c r="C10" t="n">
         <v>2060</v>
       </c>
-      <c r="D10" s="12" t="n"/>
+      <c r="D10" s="11" t="n"/>
       <c r="G10" s="2" t="n">
         <v>0.7441319444444444</v>
       </c>
@@ -961,16 +959,16 @@
       <c r="V10" s="8" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="n">
-        <v>220325</v>
-      </c>
-      <c r="B11" t="n">
+      <c r="A11" t="n">
         <v>183797</v>
+      </c>
+      <c r="B11" s="25" t="n">
+        <v>239569</v>
       </c>
       <c r="C11" t="n">
         <v>4238</v>
       </c>
-      <c r="D11" s="12" t="n"/>
+      <c r="D11" s="11" t="n"/>
       <c r="G11" s="2" t="n"/>
       <c r="H11" s="1" t="n"/>
       <c r="I11" s="1">
@@ -992,16 +990,16 @@
       <c r="V11" s="8" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="27" t="n">
-        <v>239569</v>
-      </c>
-      <c r="B12" t="n">
+      <c r="A12" t="n">
         <v>212901</v>
+      </c>
+      <c r="B12" s="25" t="n">
+        <v>232366</v>
       </c>
       <c r="C12" t="n">
         <v>5577</v>
       </c>
-      <c r="D12" s="12" t="n"/>
+      <c r="D12" s="11" t="n"/>
       <c r="G12" s="2" t="n"/>
       <c r="H12" s="1" t="n"/>
       <c r="I12" s="1">
@@ -1023,16 +1021,16 @@
       <c r="V12" s="8" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="27" t="n">
-        <v>232366</v>
-      </c>
-      <c r="B13" t="n">
+      <c r="A13" t="n">
         <v>187968</v>
+      </c>
+      <c r="B13" s="25" t="n">
+        <v>227918</v>
       </c>
       <c r="C13" t="n">
         <v>1946</v>
       </c>
-      <c r="D13" s="12" t="n"/>
+      <c r="D13" s="11" t="n"/>
       <c r="G13" s="2" t="n"/>
       <c r="H13" s="1" t="n"/>
       <c r="I13" s="1">
@@ -1054,16 +1052,16 @@
       <c r="V13" s="8" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="27" t="n">
-        <v>227918</v>
-      </c>
-      <c r="B14" t="n">
+      <c r="A14" t="n">
         <v>188286</v>
+      </c>
+      <c r="B14" s="25" t="n">
+        <v>232161</v>
       </c>
       <c r="C14" t="n">
         <v>4997</v>
       </c>
-      <c r="D14" s="12" t="n"/>
+      <c r="D14" s="11" t="n"/>
       <c r="G14" s="2" t="n"/>
       <c r="H14" s="1" t="n"/>
       <c r="I14" s="1">
@@ -1085,16 +1083,16 @@
       <c r="V14" s="8" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="27" t="n">
-        <v>232161</v>
-      </c>
-      <c r="B15" t="n">
+      <c r="A15" t="n">
         <v>202600</v>
+      </c>
+      <c r="B15" s="25" t="n">
+        <v>211125</v>
       </c>
       <c r="C15" t="n">
         <v>4387</v>
       </c>
-      <c r="D15" s="12" t="n"/>
+      <c r="D15" s="11" t="n"/>
       <c r="G15" s="2" t="n"/>
       <c r="H15" s="1" t="n"/>
       <c r="I15" s="1">
@@ -1116,16 +1114,16 @@
       <c r="V15" s="8" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="27" t="n">
-        <v>211125</v>
-      </c>
-      <c r="B16" t="n">
+      <c r="A16" t="n">
         <v>202132</v>
+      </c>
+      <c r="B16" s="25" t="n">
+        <v>202134</v>
       </c>
       <c r="C16" t="n">
         <v>852</v>
       </c>
-      <c r="D16" s="12" t="n"/>
+      <c r="D16" s="11" t="n"/>
       <c r="G16" s="2" t="n"/>
       <c r="H16" s="1" t="n"/>
       <c r="I16" s="1">
@@ -1147,16 +1145,16 @@
       <c r="V16" s="8" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="27" t="n">
-        <v>202134</v>
+      <c r="A17" t="n">
+        <v>195896</v>
       </c>
       <c r="B17" t="n">
-        <v>195896</v>
+        <v>244572</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12" t="n"/>
+        <v>4867</v>
+      </c>
+      <c r="D17" s="11" t="n"/>
       <c r="G17" s="2" t="n"/>
       <c r="H17" s="1" t="n"/>
       <c r="I17" s="1">
@@ -1178,8 +1176,10 @@
       <c r="V17" s="8" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="27" t="n"/>
-      <c r="D18" s="12" t="n"/>
+      <c r="A18" t="n">
+        <v>230662</v>
+      </c>
+      <c r="D18" s="11" t="n"/>
       <c r="G18" s="2" t="n"/>
       <c r="H18" s="1" t="n"/>
       <c r="I18" s="1">
@@ -1201,8 +1201,8 @@
       <c r="V18" s="8" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="27" t="n"/>
-      <c r="D19" s="12" t="n"/>
+      <c r="A19" s="25" t="n"/>
+      <c r="D19" s="11" t="n"/>
       <c r="G19" s="2" t="n"/>
       <c r="H19" s="1" t="n"/>
       <c r="I19" s="1">
@@ -1224,8 +1224,8 @@
       <c r="V19" s="8" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="27" t="n"/>
-      <c r="D20" s="12" t="n"/>
+      <c r="A20" s="25" t="n"/>
+      <c r="D20" s="11" t="n"/>
       <c r="G20" s="2" t="n"/>
       <c r="H20" s="1" t="n"/>
       <c r="I20" s="1">
@@ -1247,8 +1247,8 @@
       <c r="V20" s="8" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="27" t="n"/>
-      <c r="D21" s="12" t="n"/>
+      <c r="A21" s="25" t="n"/>
+      <c r="D21" s="11" t="n"/>
       <c r="G21" s="2" t="n"/>
       <c r="H21" s="1" t="n"/>
       <c r="I21" s="1">
@@ -1270,7 +1270,7 @@
       <c r="V21" s="8" t="n"/>
     </row>
     <row r="22">
-      <c r="D22" s="12" t="n"/>
+      <c r="D22" s="11" t="n"/>
       <c r="G22" s="2" t="n"/>
       <c r="H22" s="1" t="n"/>
       <c r="I22" s="1">
@@ -1292,7 +1292,7 @@
       <c r="V22" s="8" t="n"/>
     </row>
     <row r="23">
-      <c r="D23" s="12" t="n"/>
+      <c r="D23" s="11" t="n"/>
       <c r="G23" s="2" t="n"/>
       <c r="H23" s="1" t="n"/>
       <c r="I23" s="1">
@@ -1314,23 +1314,23 @@
       <c r="V23" s="8" t="n"/>
     </row>
     <row r="24">
-      <c r="E24" s="11" t="n"/>
-      <c r="G24" s="20" t="n"/>
-      <c r="H24" s="17" t="inlineStr">
+      <c r="E24" s="10" t="n"/>
+      <c r="G24" s="18" t="n"/>
+      <c r="H24" s="15" t="inlineStr">
         <is>
           <t>Avg</t>
         </is>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="14">
         <f>AVERAGEIF(I4:I23,"&lt;&gt;0")</f>
         <v/>
       </c>
-      <c r="J24" s="18" t="n"/>
+      <c r="J24" s="16" t="n"/>
       <c r="K24" s="3">
         <f>AVERAGEIF(K4:K23,"&lt;&gt;0")</f>
         <v/>
       </c>
-      <c r="L24" s="18" t="n"/>
+      <c r="L24" s="16" t="n"/>
       <c r="M24" s="3">
         <f>AVERAGEIF(M4:M23,"&lt;&gt;0")</f>
         <v/>
@@ -1350,25 +1350,25 @@
       </c>
     </row>
     <row r="25">
-      <c r="G25" s="21" t="n"/>
+      <c r="G25" s="19" t="n"/>
     </row>
     <row r="26">
-      <c r="G26" s="21" t="n"/>
+      <c r="G26" s="19" t="n"/>
     </row>
     <row r="27">
-      <c r="G27" s="21" t="n"/>
+      <c r="G27" s="19" t="n"/>
     </row>
     <row r="28">
-      <c r="G28" s="21" t="n"/>
+      <c r="G28" s="19" t="n"/>
     </row>
     <row r="29">
-      <c r="G29" s="21" t="n"/>
+      <c r="G29" s="19" t="n"/>
     </row>
     <row r="30">
-      <c r="G30" s="21" t="n"/>
+      <c r="G30" s="19" t="n"/>
     </row>
     <row r="31">
-      <c r="G31" s="21" t="n"/>
+      <c r="G31" s="19" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/lyr.xlsx
+++ b/lyr.xlsx
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="E3" s="12" t="n">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0.03252314814814815</v>

--- a/lyr.xlsx
+++ b/lyr.xlsx
@@ -3,19 +3,24 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="21600" xWindow="32190" yWindow="1530"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="21600" xWindow="6450" yWindow="1635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="4">
+    <numFmt formatCode="mmm&quot; &quot;d" numFmtId="164"/>
+    <numFmt formatCode="0&quot;p&quot;" numFmtId="165"/>
+    <numFmt formatCode="&quot;$&quot;#,##0.00" numFmtId="166"/>
+    <numFmt formatCode="0.0000&quot;g&quot;" numFmtId="167"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -25,28 +30,191 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="2" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="2" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="8" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="11" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="3" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -370,19 +538,12 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="C1" t="n">
-        <v>1000</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1000</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="3">

--- a/lyr.xlsx
+++ b/lyr.xlsx
@@ -524,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,10 +547,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E3" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="n">
+        <v>52.32</v>
       </c>
     </row>
   </sheetData>

--- a/lyr.xlsx
+++ b/lyr.xlsx
@@ -1,33 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LyrSave\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765D6F56-53D8-4FF3-831F-3772B135F471}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="28680" yWindow="-120"/>
+    <workbookView xWindow="30855" yWindow="1560" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -43,15 +56,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -339,61 +361,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>3000000</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1">
         <v>300000</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>348818</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>348842</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>4884</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>360860</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>306781</v>
+      </c>
+      <c r="B3">
+        <v>414299</v>
+      </c>
+      <c r="C3">
+        <v>10751</v>
+      </c>
+      <c r="E3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>354611</v>
       </c>
+      <c r="B4">
+        <v>425621</v>
+      </c>
+      <c r="C4">
+        <v>7101</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>306781</v>
-      </c>
-      <c r="B3" t="n">
-        <v>414299</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10751</v>
-      </c>
-      <c r="E3" t="n">
-        <v>40000</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>360860</v>
+      </c>
+      <c r="B5">
+        <v>426032</v>
+      </c>
+      <c r="C5">
+        <v>6517</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/lyr.xlsx
+++ b/lyr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LyrSave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765D6F56-53D8-4FF3-831F-3772B135F471}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6FB823-FCFC-4731-9000-DC87943D3ADA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30855" yWindow="1560" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,7 +365,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +386,7 @@
         <v>348818</v>
       </c>
       <c r="B2">
-        <v>348842</v>
+        <v>397658</v>
       </c>
       <c r="C2">
         <v>4884</v>

--- a/lyr.xlsx
+++ b/lyr.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LyrSave\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6FB823-FCFC-4731-9000-DC87943D3ADA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="30855" yWindow="1560" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
     <t>0</t>
   </si>
@@ -28,14 +19,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,7 +48,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -54,44 +56,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -115,80 +154,22 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -220,20 +201,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -245,7 +222,7 @@
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:satMod val="104999"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -266,16 +243,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -284,23 +252,21 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -355,83 +321,1006 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="3">
         <v>3000000</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="3">
         <v>300000</v>
       </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="3">
         <v>348818</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>397658</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>4884</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="4"/>
+      <c r="E2" s="3">
         <v>360860</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="3">
         <v>306781</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>414299</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>10751</v>
       </c>
-      <c r="E3">
+      <c r="D3" s="4"/>
+      <c r="E3" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="3">
         <v>354611</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>425621</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>7101</v>
       </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="3">
         <v>360860</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>426032</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>6517</v>
       </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>